--- a/Upper3.xlsx
+++ b/Upper3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,56 +458,218 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44895.09375</v>
+        <v>44125.625</v>
       </c>
       <c r="B2" t="n">
-        <v>17080.43830179856</v>
+        <v>2.107675754536493</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44895.52083333334</v>
+        <v>44125.75</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>16841.07375354354</v>
+        <v>1.948202576129336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44903.77083333334</v>
+        <v>44142.07291666666</v>
       </c>
       <c r="B4" t="n">
-        <v>17226.99005538441</v>
+        <v>2.250337282945386</v>
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44904.34375</v>
+        <v>44142.58333333334</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>17202.1501700419</v>
+        <v>2.245845942664026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44908.40625</v>
+        <v>44178.51041666666</v>
       </c>
       <c r="B6" t="n">
-        <v>17484.70911801512</v>
+        <v>1.607061071303064</v>
       </c>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44909.1875</v>
+        <v>44178.83333333334</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>17752.12376290558</v>
+        <v>1.572894510843002</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44180.125</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.719168800896331</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44180.59375</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>1.718387281079325</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44204.41666666666</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.120130548023874</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44204.83333333334</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>3.162118492340033</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44229.35416666666</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.351561416378089</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44229.64583333334</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>5.071733591711183</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44246.51041666666</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.35509668954349</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44247.03125</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>11.08366481300376</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44249.8125</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.34829008640281</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44250.20833333334</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>13.26324218499715</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44266.72916666666</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15.67519183306398</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44267.3125</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>16.01936378958497</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44277.17708333334</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15.45396416134136</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44277.5625</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>15.76496271752683</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44403.0625</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30.71234535161814</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44403.33333333334</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>29.36151843268062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44423.73958333334</v>
+      </c>
+      <c r="B24" t="n">
+        <v>52.47724936166023</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44424.82291666666</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>64.31932694245472</v>
       </c>
     </row>
   </sheetData>
